--- a/TextToSpeech/Resources/InputSamples/ExcelSample.xlsx
+++ b/TextToSpeech/Resources/InputSamples/ExcelSample.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vaggelis\Documents\GitHub\soft eng textToSpeech\TextToSpeech\Resources\InputSamples\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B2933B-A81C-4C1E-A77B-835FD28A6B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,8 +24,49 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>column0</t>
+  </si>
+  <si>
+    <t>column1</t>
+  </si>
+  <si>
+    <t>column2</t>
+  </si>
+  <si>
+    <t>row1</t>
+  </si>
+  <si>
+    <t>row2</t>
+  </si>
+  <si>
+    <t>row3</t>
+  </si>
+  <si>
+    <t>row1 col1</t>
+  </si>
+  <si>
+    <t>row2 col2</t>
+  </si>
+  <si>
+    <t>row3 col1</t>
+  </si>
+  <si>
+    <t>row2 col1</t>
+  </si>
+  <si>
+    <t>row1 col2</t>
+  </si>
+  <si>
+    <t>row3 col2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +377,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TextToSpeech/Resources/InputSamples/ExcelSample.xlsx
+++ b/TextToSpeech/Resources/InputSamples/ExcelSample.xlsx
@@ -12,21 +12,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Lorem ipsum dolor sit amet</t>
+    <t>column0</t>
   </si>
   <si>
-    <t xml:space="preserve"> consectetur adipiscing elit</t>
+    <t>column1</t>
   </si>
   <si>
-    <t xml:space="preserve"> sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam</t>
+    <t>column2</t>
   </si>
   <si>
-    <t xml:space="preserve"> quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident</t>
+    <t>row1</t>
   </si>
   <si>
-    <t xml:space="preserve"> sunt in culpa qui officia deserunt mollit anim id est laborum.</t>
+    <t>row1 col1</t>
+  </si>
+  <si>
+    <t>row1 col2</t>
+  </si>
+  <si>
+    <t>row2</t>
+  </si>
+  <si>
+    <t>row2 col1</t>
+  </si>
+  <si>
+    <t>row2 col2</t>
+  </si>
+  <si>
+    <t>row3</t>
+  </si>
+  <si>
+    <t>row3 col1</t>
+  </si>
+  <si>
+    <t>row3 col2</t>
   </si>
 </sst>
 </file>
@@ -71,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -87,11 +108,38 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
